--- a/biology/Écologie/Plan_Polmar/Plan_Polmar.xlsx
+++ b/biology/Écologie/Plan_Polmar/Plan_Polmar.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le plan Polmar (mot-valise pour « pollution maritime ») est un plan d'intervention spécialisé français qui est déclenché en cas de pollution maritime accidentelle. Il sert à coordonner le personnel et à mobiliser les moyens de lutte.
@@ -489,7 +501,7 @@
 Le plan Polmar Terre est déclenché par les préfets des départements concernés par la pollution, en lien avec les directions départementales des territoires et de la mer (DDTM), lorsque la pollution atteint les côtes. Lorsqu'une coordination est nécessaire, elle est pilotée par les préfets de zone de défense.
 En réponse à un sinistre, des experts désignés aident les préfets concernés à prendre une décision la plus consensuelle possible, entre ce qui est économiquement, politiquement, écologiquement acceptable et techniquement possible en tenant compte du contexte (saison/météo, polluant, usage, etc.).
 Par leurs mises à jour, les plans Polmar évoluent selon la législation, l'évolution des connaissances, et les retours d’expérience d’accidents. Les naufrages de l'Erika et du Prestige ont notamment montré le besoin d’une meilleure prise en compte de la vulnérabilité de l’environnement, de l’expertise écologique, de l’évaluation des impacts, ainsi qu'un besoin d'amélioration continue des protocoles, produits et matériels de nettoyage/restauration.
-Des plans d'intervention similaires sont organisés en commun entre la France et les États limitrophes pour coordonner leurs opérations de prévention et de lutte contre les pollutions en mer (le "Manche Plan" signé le 15 mai 1978 avec le Royaume-Uni, le "Biscaye Plan" signé le 25 novembre 1999 avec l'Espagne pour la côte atlantique ou le plan RAMOGEPOL signé le 11 janvier 2005 avec Monaco et l'Italie)[1].
+Des plans d'intervention similaires sont organisés en commun entre la France et les États limitrophes pour coordonner leurs opérations de prévention et de lutte contre les pollutions en mer (le "Manche Plan" signé le 15 mai 1978 avec le Royaume-Uni, le "Biscaye Plan" signé le 25 novembre 1999 avec l'Espagne pour la côte atlantique ou le plan RAMOGEPOL signé le 11 janvier 2005 avec Monaco et l'Italie).
 </t>
         </is>
       </c>
@@ -518,9 +530,11 @@
           <t>Éléments historiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La marée noire du Torrey Canyon survenue en 1967 montre que les différentes administrations françaises concernées sont mal organisées pour faire face à la pollution maritime. Le plan Polmar est donc imaginé en 1970 comme une déclinaison du plan ORSEC pour pallier ces manques. Entre 1970 et 1976, les plans départementaux Polmar sont élaborés. Les déversements pétroliers de l'Olympic Bravery le 20 janvier 1976 et du Boehlen le 15 octobre 1976 mettent en relief la relative inefficacité du plan (processus de décision complexe, manque d'exercices de lutte contre les pollutions...). Un effort de réflexion est donc entrepris au sein du GICAMA (groupe interministériel de coordination des actions en mer des administrations) qui propose une réforme du plan Polmar, laquelle débute en mai 1977. Cette réforme est encore en gestation lors de la catastrophe de l’Amoco Cadiz en mars 1978, et ne sera pleinement effective qu'en fin d'année 1978[2].De 1999 à 2003, l’organisation POLMAR montre ses limites, notamment lors du naufrage de l’Erika le 12 décembre 1999 et lors de la gestion de la pollution du Prestige au cours de l'année 2003[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La marée noire du Torrey Canyon survenue en 1967 montre que les différentes administrations françaises concernées sont mal organisées pour faire face à la pollution maritime. Le plan Polmar est donc imaginé en 1970 comme une déclinaison du plan ORSEC pour pallier ces manques. Entre 1970 et 1976, les plans départementaux Polmar sont élaborés. Les déversements pétroliers de l'Olympic Bravery le 20 janvier 1976 et du Boehlen le 15 octobre 1976 mettent en relief la relative inefficacité du plan (processus de décision complexe, manque d'exercices de lutte contre les pollutions...). Un effort de réflexion est donc entrepris au sein du GICAMA (groupe interministériel de coordination des actions en mer des administrations) qui propose une réforme du plan Polmar, laquelle débute en mai 1977. Cette réforme est encore en gestation lors de la catastrophe de l’Amoco Cadiz en mars 1978, et ne sera pleinement effective qu'en fin d'année 1978.De 1999 à 2003, l’organisation POLMAR montre ses limites, notamment lors du naufrage de l’Erika le 12 décembre 1999 et lors de la gestion de la pollution du Prestige au cours de l'année 2003.
 </t>
         </is>
       </c>
@@ -549,16 +563,52 @@
           <t>Ressources essentielles du plan Polmar</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Des dispositions spécifiques des plans ORSEC départementaux. Ces dispositions sont mis à jour lorsque nécessaire par un arrêté préfectoral, mais au moins une fois tous les 5 ans. Ces plans doivent prévoir les accidents maritimes, comme les pollutions marines accidentelles d'origine tellurique (ports, estuaires, centrales nucléaires, écluses, etc...) qui doivent par exemple pouvoir être barrés par des barrages filtrants et faire l'objet d'interventions rapides ;
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Des dispositions spécifiques des plans ORSEC départementaux. Ces dispositions sont mis à jour lorsque nécessaire par un arrêté préfectoral, mais au moins une fois tous les 5 ans. Ces plans doivent prévoir les accidents maritimes, comme les pollutions marines accidentelles d'origine tellurique (ports, estuaires, centrales nucléaires, écluses, etc...) qui doivent par exemple pouvoir être barrés par des barrages filtrants et faire l'objet d'interventions rapides ;
 Des hommes préparés à intervenir. Bénéficiant d'une formation théorique, ils sont régulièrement soumis à des simulations d'incidents au cours desquelles le matériel de lutte est testé. Ils contribuent également à mettre au point et à réviser les plans d'intervention, et gère l'approvisionnement en produits et matériels ;
 Une chaîne hiérarchisée d'évaluation et de décision. Elle s’appuie sur un état-major départemental de lutte (CED en préfecture), un ou plusieurs PC opérationnels avancés, des PC de secteurs et des PC de chantier ;
 Un réseau d'experts mobilisables pour les opérations de lutte ;
 Quatorze centres de stockage et d’intervention, à savoir huit centres en France métropolitaine (Dunkerque, Le Havre, Brest, Saint-Nazaire, Le Verdon, Sète, Marseille, Ajaccio et Paris) et six centres en outre-mer. Ces centres entreposent et entretiennent le matériel qui est mis à la disposition des préfets en cas de besoin. On peut citer par exemple: barrages flottants, rouleaux ou matériaux adsorbants nécessaires aux écrémeurs et aux barges récupératrices (pour récupérer du fioul à la surface de l’eau), réservoirs souples (flottants et terrestres), pompes, matériel de nettoyage des plages (matériel de raclage et cribleuses), matériel de nettoyage des rochers (nettoyeurs haute-pression), containers (route/avion), centrales hydrauliques, groupe électrogène, moyens de communication, tentes et abris de chantier, etc.
-Harmonisation des plans, procédures, terminologies, symbolique en cartographie, etc. et partage de l'information et de l'expertise, pour une meilleure cohérence nationale en cas de déclenchement simultané de plusieurs plans d’urgence Mer/Terre ou Terre/Terre
-Activation du Polmar Terre
-La circulaire du Premier Ministre du 17 décembre 1997 prévoit deux possibilités :
+Harmonisation des plans, procédures, terminologies, symbolique en cartographie, etc. et partage de l'information et de l'expertise, pour une meilleure cohérence nationale en cas de déclenchement simultané de plusieurs plans d’urgence Mer/Terre ou Terre/Terre</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Plan_Polmar</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Plan_Polmar</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Ressources essentielles du plan Polmar</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Activation du Polmar Terre</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La circulaire du Premier Ministre du 17 décembre 1997 prévoit deux possibilités :
 En cas de pollution de faible ou moyenne ampleur :
 pas de déclenchement du Polmar Terre ;
 responsabilité communale ;
@@ -574,37 +624,6 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Plan_Polmar</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Plan_Polmar</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>L'alerte</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une fois la première alerte donnée, une évaluation du sinistre est réalisée afin d'évaluer le niveau de gravité et de déclencher un plan proportionné.
-</t>
-        </is>
-      </c>
-    </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
@@ -626,12 +645,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Préparation matérielle du plan</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La préparation, incluant la mise en place des moyens techniques et financiers et la qualification du personnel, est confiée au ministère chargé de l’Écologie. Les DREAL s'occupent des aspects environnementaux.
+          <t>L'alerte</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une fois la première alerte donnée, une évaluation du sinistre est réalisée afin d'évaluer le niveau de gravité et de déclencher un plan proportionné.
 </t>
         </is>
       </c>
@@ -657,10 +678,45 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Préparation matérielle du plan</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La préparation, incluant la mise en place des moyens techniques et financiers et la qualification du personnel, est confiée au ministère chargé de l’Écologie. Les DREAL s'occupent des aspects environnementaux.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Plan_Polmar</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Plan_Polmar</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Aspects environnementaux et sanitaires</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des aspects plus récemment développés, au cours des mises à jour, incluant :
 cartographies (dites Atlas Polmar) des sites sensibles, par type de vulnérabilité ;
@@ -677,31 +733,33 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Plan_Polmar</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Écologie/Articles liés</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Plan_Polmar</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Contributeurs et experts</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Le centre de documentation de recherche et d'expérimentation sur les pollutions accidentelles des eaux (CEDRE) est l'organisme expert en matière de lutte contre la pollution marine en France. L’association Cedre est mise en place début 1979 à Brest, afin de remplir une mission de service public au profit de l’État et des collectivités et de capitaliser la connaissance sur les pollutions accidentelles des eaux. Le Cedre est constitué d’un centre de documentation, d’un centre de recherche, d’une plateforme d’expérimentation, d’un laboratoire et d’un centre de formation professionnelle, de planification et d’audit. Expert en pollution accidentelle des eaux reconnu tant au niveau national qu’international, sa mission de conseil et d’expertise englobe aussi bien les eaux marines que les eaux intérieures, les pollutions par hydrocarbures, produits chimiques et déchets aquatiques. 
 Au niveau départemental, sous l'autorité de la préfecture, la Direction départementale des territoires et de la mer (DDTM) organise les moyens de lutte et la prévention prévue par le dispositif Polmar Terre.
